--- a/MyOther/Level2T.xlsx
+++ b/MyOther/Level2T.xlsx
@@ -98,8 +98,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,41 +127,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,32 +205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +244,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,25 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,102 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +471,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -501,30 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -543,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,8 +1042,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1104,37 +1104,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2"/>
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2"/>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2">
-        <v>0.00012</v>
-      </c>
+      <c r="K2"/>
       <c r="L2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M2">
-        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
